--- a/data/atlas_metadata_simplified.xlsx
+++ b/data/atlas_metadata_simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas_dev/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596BFBE2-FB0A-5043-B50C-EC8F84098E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139F4CC2-5EA0-0A42-B87B-6D61C2F2520C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1500" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="230">
   <si>
     <t>Patient</t>
   </si>
@@ -712,21 +712,6 @@
   </si>
   <si>
     <t>HUP172_phaseII</t>
-  </si>
-  <si>
-    <t>clip1_awake</t>
-  </si>
-  <si>
-    <t>clip2_awake</t>
-  </si>
-  <si>
-    <t>clip1_asleep</t>
-  </si>
-  <si>
-    <t>clip2_asleep</t>
-  </si>
-  <si>
-    <t>poor data quality</t>
   </si>
   <si>
     <t>HUP181_phaseII_D02</t>
@@ -1088,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1098,7 @@
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,20 +1141,8 @@
       <c r="N1" t="s">
         <v>225</v>
       </c>
-      <c r="O1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>231</v>
-      </c>
-      <c r="R1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1212,20 +1185,8 @@
       <c r="N2" t="s">
         <v>163</v>
       </c>
-      <c r="O2">
-        <v>343801</v>
-      </c>
-      <c r="P2">
-        <v>349875</v>
-      </c>
-      <c r="Q2">
-        <v>387001</v>
-      </c>
-      <c r="R2">
-        <v>556201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1268,20 +1229,8 @@
       <c r="N3" t="s">
         <v>164</v>
       </c>
-      <c r="O3">
-        <v>334801</v>
-      </c>
-      <c r="P3">
-        <v>790405</v>
-      </c>
-      <c r="Q3">
-        <v>398213</v>
-      </c>
-      <c r="R3">
-        <v>475201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1324,20 +1273,8 @@
       <c r="N4" t="s">
         <v>165</v>
       </c>
-      <c r="O4">
-        <v>507079</v>
-      </c>
-      <c r="P4">
-        <v>610604</v>
-      </c>
-      <c r="Q4">
-        <v>392207</v>
-      </c>
-      <c r="R4">
-        <v>654000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1380,20 +1317,8 @@
       <c r="N5" t="s">
         <v>166</v>
       </c>
-      <c r="O5">
-        <v>513001</v>
-      </c>
-      <c r="P5">
-        <v>590371</v>
-      </c>
-      <c r="Q5">
-        <v>307801</v>
-      </c>
-      <c r="R5">
-        <v>387001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1436,20 +1361,8 @@
       <c r="N6" t="s">
         <v>167</v>
       </c>
-      <c r="O6">
-        <v>447705</v>
-      </c>
-      <c r="P6">
-        <v>449275</v>
-      </c>
-      <c r="Q6">
-        <v>383691</v>
-      </c>
-      <c r="R6">
-        <v>477872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1492,11 +1405,8 @@
       <c r="N7" t="s">
         <v>168</v>
       </c>
-      <c r="S7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1539,20 +1449,8 @@
       <c r="N8" t="s">
         <v>169</v>
       </c>
-      <c r="O8">
-        <v>317079</v>
-      </c>
-      <c r="P8">
-        <v>371843</v>
-      </c>
-      <c r="Q8">
-        <v>262801</v>
-      </c>
-      <c r="R8">
-        <v>388801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1595,20 +1493,8 @@
       <c r="N9" t="s">
         <v>170</v>
       </c>
-      <c r="O9">
-        <v>347401</v>
-      </c>
-      <c r="P9">
-        <v>415801</v>
-      </c>
-      <c r="Q9">
-        <v>282601</v>
-      </c>
-      <c r="R9">
-        <v>311401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1651,11 +1537,8 @@
       <c r="N10" t="s">
         <v>171</v>
       </c>
-      <c r="S10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1698,20 +1581,8 @@
       <c r="N11" t="s">
         <v>172</v>
       </c>
-      <c r="O11">
-        <v>504794</v>
-      </c>
-      <c r="P11">
-        <v>463827</v>
-      </c>
-      <c r="Q11">
-        <v>306635</v>
-      </c>
-      <c r="R11">
-        <v>397408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1754,20 +1625,8 @@
       <c r="N12" t="s">
         <v>173</v>
       </c>
-      <c r="O12">
-        <v>326221</v>
-      </c>
-      <c r="P12">
-        <v>342084</v>
-      </c>
-      <c r="Q12">
-        <v>469566</v>
-      </c>
-      <c r="R12">
-        <v>546966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1810,20 +1669,8 @@
       <c r="N13" t="s">
         <v>174</v>
       </c>
-      <c r="O13">
-        <v>347402</v>
-      </c>
-      <c r="P13">
-        <v>428403</v>
-      </c>
-      <c r="Q13">
-        <v>307802</v>
-      </c>
-      <c r="R13">
-        <v>309602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1866,20 +1713,8 @@
       <c r="N14" t="s">
         <v>175</v>
       </c>
-      <c r="O14">
-        <v>342001</v>
-      </c>
-      <c r="P14">
-        <v>419401</v>
-      </c>
-      <c r="Q14">
-        <v>298801</v>
-      </c>
-      <c r="R14">
-        <v>379801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1922,20 +1757,8 @@
       <c r="N15" t="s">
         <v>176</v>
       </c>
-      <c r="O15">
-        <v>341933</v>
-      </c>
-      <c r="P15">
-        <v>419354</v>
-      </c>
-      <c r="Q15">
-        <v>296933</v>
-      </c>
-      <c r="R15">
-        <v>390000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1978,20 +1801,8 @@
       <c r="N16" t="s">
         <v>177</v>
       </c>
-      <c r="O16">
-        <v>266691</v>
-      </c>
-      <c r="P16">
-        <v>273692</v>
-      </c>
-      <c r="Q16">
-        <v>296006</v>
-      </c>
-      <c r="R16">
-        <v>300601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2034,20 +1845,8 @@
       <c r="N17" t="s">
         <v>178</v>
       </c>
-      <c r="O17">
-        <v>405001</v>
-      </c>
-      <c r="P17">
-        <v>487801</v>
-      </c>
-      <c r="Q17">
-        <v>376201</v>
-      </c>
-      <c r="R17">
-        <v>465000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2090,20 +1889,8 @@
       <c r="N18" t="s">
         <v>179</v>
       </c>
-      <c r="O18">
-        <v>621005</v>
-      </c>
-      <c r="P18">
-        <v>700239</v>
-      </c>
-      <c r="Q18">
-        <v>667802</v>
-      </c>
-      <c r="R18">
-        <v>755030</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -2146,20 +1933,8 @@
       <c r="N19" t="s">
         <v>180</v>
       </c>
-      <c r="O19">
-        <v>401914</v>
-      </c>
-      <c r="P19">
-        <v>471187</v>
-      </c>
-      <c r="Q19">
-        <v>276700</v>
-      </c>
-      <c r="R19">
-        <v>368283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2202,11 +1977,8 @@
       <c r="N20" t="s">
         <v>181</v>
       </c>
-      <c r="S20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2249,20 +2021,8 @@
       <c r="N21" t="s">
         <v>182</v>
       </c>
-      <c r="O21">
-        <v>327601</v>
-      </c>
-      <c r="P21">
-        <v>484201</v>
-      </c>
-      <c r="Q21">
-        <v>307801</v>
-      </c>
-      <c r="R21">
-        <v>568801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2305,20 +2065,8 @@
       <c r="N22" t="s">
         <v>183</v>
       </c>
-      <c r="O22">
-        <v>378001</v>
-      </c>
-      <c r="P22">
-        <v>451801</v>
-      </c>
-      <c r="Q22">
-        <v>399601</v>
-      </c>
-      <c r="R22">
-        <v>569761</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2361,20 +2109,8 @@
       <c r="N23" t="s">
         <v>184</v>
       </c>
-      <c r="O23">
-        <v>343801</v>
-      </c>
-      <c r="P23">
-        <v>502967</v>
-      </c>
-      <c r="Q23">
-        <v>307892</v>
-      </c>
-      <c r="R23">
-        <v>472367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2417,20 +2153,8 @@
       <c r="N24" t="s">
         <v>185</v>
       </c>
-      <c r="O24">
-        <v>277685</v>
-      </c>
-      <c r="P24">
-        <v>302684</v>
-      </c>
-      <c r="Q24">
-        <v>113843</v>
-      </c>
-      <c r="R24">
-        <v>191918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2473,20 +2197,8 @@
       <c r="N25" t="s">
         <v>186</v>
       </c>
-      <c r="O25">
-        <v>336167</v>
-      </c>
-      <c r="P25">
-        <v>410402</v>
-      </c>
-      <c r="Q25">
-        <v>315783</v>
-      </c>
-      <c r="R25">
-        <v>388802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2529,20 +2241,8 @@
       <c r="N26" t="s">
         <v>187</v>
       </c>
-      <c r="O26">
-        <v>423051</v>
-      </c>
-      <c r="P26">
-        <v>446402</v>
-      </c>
-      <c r="Q26">
-        <v>395401</v>
-      </c>
-      <c r="R26">
-        <v>713700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2585,11 +2285,8 @@
       <c r="N27" t="s">
         <v>188</v>
       </c>
-      <c r="S27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2632,20 +2329,8 @@
       <c r="N28" t="s">
         <v>189</v>
       </c>
-      <c r="O28">
-        <v>255601</v>
-      </c>
-      <c r="P28">
-        <v>323050</v>
-      </c>
-      <c r="Q28">
-        <v>330260</v>
-      </c>
-      <c r="R28">
-        <v>339250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2688,20 +2373,8 @@
       <c r="N29" t="s">
         <v>190</v>
       </c>
-      <c r="O29">
-        <v>612003</v>
-      </c>
-      <c r="P29">
-        <v>746092</v>
-      </c>
-      <c r="Q29">
-        <v>420000</v>
-      </c>
-      <c r="R29">
-        <v>490027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2744,20 +2417,8 @@
       <c r="N30" t="s">
         <v>191</v>
       </c>
-      <c r="O30">
-        <v>284401</v>
-      </c>
-      <c r="P30">
-        <v>361801</v>
-      </c>
-      <c r="Q30">
-        <v>324001</v>
-      </c>
-      <c r="R30">
-        <v>329403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2800,20 +2461,8 @@
       <c r="N31" t="s">
         <v>192</v>
       </c>
-      <c r="O31">
-        <v>188875</v>
-      </c>
-      <c r="P31">
-        <v>287055</v>
-      </c>
-      <c r="Q31">
-        <v>295861</v>
-      </c>
-      <c r="R31">
-        <v>301160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2855,18 +2504,6 @@
       </c>
       <c r="N32" t="s">
         <v>193</v>
-      </c>
-      <c r="O32">
-        <v>264601</v>
-      </c>
-      <c r="P32">
-        <v>341046</v>
-      </c>
-      <c r="Q32">
-        <v>304049</v>
-      </c>
-      <c r="R32">
-        <v>306020</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2912,18 +2549,6 @@
       <c r="N33" t="s">
         <v>194</v>
       </c>
-      <c r="O33">
-        <v>363584</v>
-      </c>
-      <c r="P33">
-        <v>425001</v>
-      </c>
-      <c r="Q33">
-        <v>475202</v>
-      </c>
-      <c r="R33">
-        <v>552602</v>
-      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -2968,18 +2593,6 @@
       <c r="N34" t="s">
         <v>195</v>
       </c>
-      <c r="O34">
-        <v>344481</v>
-      </c>
-      <c r="P34">
-        <v>420081</v>
-      </c>
-      <c r="Q34">
-        <v>367881</v>
-      </c>
-      <c r="R34">
-        <v>580281</v>
-      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -3024,18 +2637,6 @@
       <c r="N35" t="s">
         <v>196</v>
       </c>
-      <c r="O35">
-        <v>370801</v>
-      </c>
-      <c r="P35">
-        <v>403201</v>
-      </c>
-      <c r="Q35">
-        <v>352801</v>
-      </c>
-      <c r="R35">
-        <v>433801</v>
-      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -3080,18 +2681,6 @@
       <c r="N36" t="s">
         <v>197</v>
       </c>
-      <c r="O36">
-        <v>347401</v>
-      </c>
-      <c r="P36">
-        <v>435601</v>
-      </c>
-      <c r="Q36">
-        <v>395901</v>
-      </c>
-      <c r="R36">
-        <v>505837</v>
-      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -3136,18 +2725,6 @@
       <c r="N37" t="s">
         <v>198</v>
       </c>
-      <c r="O37">
-        <v>505648</v>
-      </c>
-      <c r="P37">
-        <v>586535</v>
-      </c>
-      <c r="Q37">
-        <v>297127</v>
-      </c>
-      <c r="R37">
-        <v>383463</v>
-      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -3192,18 +2769,6 @@
       <c r="N38" t="s">
         <v>199</v>
       </c>
-      <c r="O38">
-        <v>340033</v>
-      </c>
-      <c r="P38">
-        <v>534433</v>
-      </c>
-      <c r="Q38">
-        <v>385200</v>
-      </c>
-      <c r="R38">
-        <v>451633</v>
-      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -3248,18 +2813,6 @@
       <c r="N39" t="s">
         <v>200</v>
       </c>
-      <c r="O39">
-        <v>315060</v>
-      </c>
-      <c r="P39">
-        <v>388796</v>
-      </c>
-      <c r="Q39">
-        <v>376166</v>
-      </c>
-      <c r="R39">
-        <v>421196</v>
-      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -3304,18 +2857,6 @@
       <c r="N40" t="s">
         <v>201</v>
       </c>
-      <c r="O40">
-        <v>341300</v>
-      </c>
-      <c r="P40">
-        <v>417610</v>
-      </c>
-      <c r="Q40">
-        <v>305641</v>
-      </c>
-      <c r="R40">
-        <v>383401</v>
-      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -3360,18 +2901,6 @@
       <c r="N41" t="s">
         <v>202</v>
       </c>
-      <c r="O41">
-        <v>372592</v>
-      </c>
-      <c r="P41">
-        <v>453633</v>
-      </c>
-      <c r="Q41">
-        <v>311401</v>
-      </c>
-      <c r="R41">
-        <v>484203</v>
-      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -3416,18 +2945,6 @@
       <c r="N42" t="s">
         <v>203</v>
       </c>
-      <c r="O42">
-        <v>336868</v>
-      </c>
-      <c r="P42">
-        <v>352801</v>
-      </c>
-      <c r="Q42">
-        <v>310001</v>
-      </c>
-      <c r="R42">
-        <v>456539</v>
-      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -3472,18 +2989,7 @@
       <c r="N43" t="s">
         <v>204</v>
       </c>
-      <c r="O43">
-        <v>460879</v>
-      </c>
-      <c r="P43">
-        <v>1087204</v>
-      </c>
-      <c r="Q43">
-        <v>482401</v>
-      </c>
-      <c r="R43" s="1">
-        <v>484201</v>
-      </c>
+      <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -3528,18 +3034,6 @@
       <c r="N44" t="s">
         <v>205</v>
       </c>
-      <c r="O44">
-        <v>283467</v>
-      </c>
-      <c r="P44">
-        <v>361990</v>
-      </c>
-      <c r="Q44">
-        <v>307802</v>
-      </c>
-      <c r="R44">
-        <v>393768</v>
-      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -3584,18 +3078,6 @@
       <c r="N45" t="s">
         <v>206</v>
       </c>
-      <c r="O45">
-        <v>336559</v>
-      </c>
-      <c r="P45">
-        <v>278281</v>
-      </c>
-      <c r="Q45">
-        <v>302401</v>
-      </c>
-      <c r="R45">
-        <v>388801</v>
-      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -3640,18 +3122,6 @@
       <c r="N46" t="s">
         <v>207</v>
       </c>
-      <c r="O46">
-        <v>341996</v>
-      </c>
-      <c r="P46">
-        <v>433801</v>
-      </c>
-      <c r="Q46">
-        <v>306001</v>
-      </c>
-      <c r="R46">
-        <v>471583</v>
-      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -3696,18 +3166,6 @@
       <c r="N47" t="s">
         <v>208</v>
       </c>
-      <c r="O47">
-        <v>340195</v>
-      </c>
-      <c r="P47">
-        <v>420117</v>
-      </c>
-      <c r="Q47">
-        <v>306495</v>
-      </c>
-      <c r="R47">
-        <v>392759</v>
-      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -3752,20 +3210,8 @@
       <c r="N48" t="s">
         <v>209</v>
       </c>
-      <c r="O48">
-        <v>359986</v>
-      </c>
-      <c r="P48">
-        <v>514766</v>
-      </c>
-      <c r="Q48">
-        <v>404818</v>
-      </c>
-      <c r="R48">
-        <v>484203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -3808,20 +3254,8 @@
       <c r="N49" t="s">
         <v>210</v>
       </c>
-      <c r="O49">
-        <v>342001</v>
-      </c>
-      <c r="P49">
-        <v>433801</v>
-      </c>
-      <c r="Q49">
-        <v>307804</v>
-      </c>
-      <c r="R49">
-        <v>392401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -3864,20 +3298,8 @@
       <c r="N50" t="s">
         <v>226</v>
       </c>
-      <c r="O50">
-        <v>363739</v>
-      </c>
-      <c r="P50">
-        <v>415147</v>
-      </c>
-      <c r="Q50">
-        <v>306001</v>
-      </c>
-      <c r="R50">
-        <v>487801</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -3920,20 +3342,8 @@
       <c r="N51" t="s">
         <v>227</v>
       </c>
-      <c r="O51">
-        <v>293419</v>
-      </c>
-      <c r="P51">
-        <v>370801</v>
-      </c>
-      <c r="Q51">
-        <v>313212</v>
-      </c>
-      <c r="R51">
-        <v>412201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -3976,20 +3386,8 @@
       <c r="N52" t="s">
         <v>211</v>
       </c>
-      <c r="O52">
-        <v>423320</v>
-      </c>
-      <c r="P52">
-        <v>566056</v>
-      </c>
-      <c r="Q52">
-        <v>304600</v>
-      </c>
-      <c r="R52">
-        <v>455405</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -4032,20 +3430,8 @@
       <c r="N53" t="s">
         <v>212</v>
       </c>
-      <c r="O53">
-        <v>819001</v>
-      </c>
-      <c r="P53">
-        <v>1161001</v>
-      </c>
-      <c r="Q53">
-        <v>307201</v>
-      </c>
-      <c r="R53">
-        <v>568018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -4088,20 +3474,8 @@
       <c r="N54" t="s">
         <v>213</v>
       </c>
-      <c r="O54">
-        <v>379210</v>
-      </c>
-      <c r="P54">
-        <v>466014</v>
-      </c>
-      <c r="Q54">
-        <v>282418</v>
-      </c>
-      <c r="R54">
-        <v>482214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -4144,11 +3518,8 @@
       <c r="N55" t="s">
         <v>214</v>
       </c>
-      <c r="S55" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -4191,20 +3562,8 @@
       <c r="N56" t="s">
         <v>215</v>
       </c>
-      <c r="O56">
-        <v>331178</v>
-      </c>
-      <c r="P56">
-        <v>410401</v>
-      </c>
-      <c r="Q56">
-        <v>685272</v>
-      </c>
-      <c r="R56">
-        <v>929970</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -4247,20 +3606,8 @@
       <c r="N57" t="s">
         <v>228</v>
       </c>
-      <c r="O57">
-        <v>345600</v>
-      </c>
-      <c r="P57">
-        <v>437919</v>
-      </c>
-      <c r="Q57">
-        <v>316347</v>
-      </c>
-      <c r="R57">
-        <v>740640</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -4303,20 +3650,8 @@
       <c r="N58" t="s">
         <v>216</v>
       </c>
-      <c r="O58">
-        <v>257144</v>
-      </c>
-      <c r="P58">
-        <v>320401</v>
-      </c>
-      <c r="Q58">
-        <v>307320</v>
-      </c>
-      <c r="R58">
-        <v>386086</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -4359,20 +3694,8 @@
       <c r="N59" t="s">
         <v>217</v>
       </c>
-      <c r="O59">
-        <v>363368</v>
-      </c>
-      <c r="P59">
-        <v>524025</v>
-      </c>
-      <c r="Q59">
-        <v>266824</v>
-      </c>
-      <c r="R59">
-        <v>646068</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -4415,20 +3738,8 @@
       <c r="N60" t="s">
         <v>218</v>
       </c>
-      <c r="O60">
-        <v>345625</v>
-      </c>
-      <c r="P60">
-        <v>435601</v>
-      </c>
-      <c r="Q60">
-        <v>401401</v>
-      </c>
-      <c r="R60">
-        <v>667672</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -4471,20 +3782,8 @@
       <c r="N61" t="s">
         <v>219</v>
       </c>
-      <c r="O61">
-        <v>266590</v>
-      </c>
-      <c r="P61">
-        <v>451437</v>
-      </c>
-      <c r="Q61">
-        <v>416100</v>
-      </c>
-      <c r="R61">
-        <v>470002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -4525,22 +3824,10 @@
         <v>148</v>
       </c>
       <c r="N62" t="s">
-        <v>234</v>
-      </c>
-      <c r="O62">
-        <v>102065</v>
-      </c>
-      <c r="P62">
-        <v>191686</v>
-      </c>
-      <c r="Q62">
-        <v>58162</v>
-      </c>
-      <c r="R62">
-        <v>148266</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -4583,20 +3870,8 @@
       <c r="N63" t="s">
         <v>220</v>
       </c>
-      <c r="O63">
-        <v>262801</v>
-      </c>
-      <c r="P63">
-        <v>298802</v>
-      </c>
-      <c r="Q63">
-        <v>720997</v>
-      </c>
-      <c r="R63">
-        <v>754419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -4639,20 +3914,8 @@
       <c r="N64" t="s">
         <v>221</v>
       </c>
-      <c r="O64">
-        <v>352856</v>
-      </c>
-      <c r="P64">
-        <v>428520</v>
-      </c>
-      <c r="Q64">
-        <v>393567</v>
-      </c>
-      <c r="R64">
-        <v>393638</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -4695,20 +3958,8 @@
       <c r="N65" t="s">
         <v>222</v>
       </c>
-      <c r="O65">
-        <v>405003</v>
-      </c>
-      <c r="P65">
-        <v>332995</v>
-      </c>
-      <c r="Q65">
-        <v>295076</v>
-      </c>
-      <c r="R65">
-        <v>360054</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -4751,20 +4002,8 @@
       <c r="N66" t="s">
         <v>223</v>
       </c>
-      <c r="O66">
-        <v>360002</v>
-      </c>
-      <c r="P66">
-        <v>439055</v>
-      </c>
-      <c r="Q66">
-        <v>302453</v>
-      </c>
-      <c r="R66">
-        <v>476113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>157</v>
       </c>
@@ -4806,18 +4045,6 @@
       </c>
       <c r="N67" t="s">
         <v>224</v>
-      </c>
-      <c r="O67">
-        <v>327534</v>
-      </c>
-      <c r="P67">
-        <v>358219</v>
-      </c>
-      <c r="Q67">
-        <v>296615</v>
-      </c>
-      <c r="R67">
-        <v>296700</v>
       </c>
     </row>
   </sheetData>

--- a/data/atlas_metadata_simplified.xlsx
+++ b/data/atlas_metadata_simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas_dev/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139F4CC2-5EA0-0A42-B87B-6D61C2F2520C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7FB099-3023-7F43-A4AD-8C9CA2B64948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1500" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19180" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,7 +3401,7 @@
         <v>1.4</v>
       </c>
       <c r="E53">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="F53" t="s">
         <v>136</v>
